--- a/reports/conferences/BuildSys_2021/data_table_format.xlsx
+++ b/reports/conferences/BuildSys_2021/data_table_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/reports/conferences/BuildSys_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18265B4E-A8F7-DB48-8780-21A44EE1F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26BB08-D5FD-5C44-BCF5-D4326E7EC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C91F9E78-545E-8444-BD54-DF664263B160}"/>
+    <workbookView xWindow="-36320" yWindow="540" windowWidth="28040" windowHeight="16940" xr2:uid="{C91F9E78-545E-8444-BD54-DF664263B160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91B883C-5B77-F34E-9254-BFDC4A98FF9E}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reports/conferences/BuildSys_2021/data_table_format.xlsx
+++ b/reports/conferences/BuildSys_2021/data_table_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/reports/conferences/BuildSys_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26BB08-D5FD-5C44-BCF5-D4326E7EC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499504C-6EAF-7246-9D8A-A9CDF229A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36320" yWindow="540" windowWidth="28040" windowHeight="16940" xr2:uid="{C91F9E78-545E-8444-BD54-DF664263B160}"/>
+    <workbookView xWindow="-34160" yWindow="1200" windowWidth="28040" windowHeight="16940" xr2:uid="{C91F9E78-545E-8444-BD54-DF664263B160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="176">
   <si>
     <t>Target</t>
   </si>
@@ -115,13 +115,460 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\gls{se}</t>
+  </si>
+  <si>
+    <t>\textbf{0.90}</t>
+  </si>
+  <si>
+    <t>\textbf{0.88}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &amp;</t>
+  </si>
+  <si>
+    <t>\textbf{0.83}</t>
+  </si>
+  <si>
+    <t>\textbf{0.82}</t>
+  </si>
+  <si>
+    <t>\textbf{0.85}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\% Light</t>
+  </si>
+  <si>
+    <t>\textbf{0.67}</t>
+  </si>
+  <si>
+    <t>\textbf{0.53}</t>
+  </si>
+  <si>
+    <t>\textbf{0.65}</t>
+  </si>
+  <si>
+    <t>\textbf{0.66}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\% Deep</t>
+  </si>
+  <si>
+    <t>\textbf{0.75}</t>
+  </si>
+  <si>
+    <t>\textbf{0.62}</t>
+  </si>
+  <si>
+    <t>\textbf{0.60}</t>
+  </si>
+  <si>
+    <t>\textbf{0.64}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\% REM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\gls{tst}</t>
+  </si>
+  <si>
+    <t>(Fitbit)&amp;</t>
+  </si>
+  <si>
+    <t>\textbf{0.63}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\gls{sol}</t>
+  </si>
+  <si>
+    <t>\textbf{0.71}</t>
+  </si>
+  <si>
+    <t>\textbf{0.57}</t>
+  </si>
+  <si>
+    <t>\textbf{0.59}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}\gls{naw}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        \rule{0pt}{3ex}Restful</t>
+  </si>
+  <si>
+    <t>\textbf{0.84}</t>
+  </si>
+  <si>
+    <t>\textbf{0.92}</t>
+  </si>
+  <si>
+    <t>\textbf{0.91}</t>
+  </si>
+  <si>
+    <t>\textbf{0.89}</t>
+  </si>
+  <si>
+    <t>\textbf{0.69}</t>
+  </si>
+  <si>
+    <t>\textbf{0.80}</t>
+  </si>
+  <si>
+    <t>\textbf{0.72}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (EMA)&amp;</t>
+  </si>
+  <si>
+    <t>\textbf{0.79}</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>TVOC</t>
+  </si>
+  <si>
+    <t>\gls{co2}</t>
+  </si>
+  <si>
+    <t>(SE, Knn)</t>
+  </si>
+  <si>
+    <t>(SE, Random Forest)</t>
+  </si>
+  <si>
+    <t>(LIGHT_PERCENT, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(LIGHT_PERCENT, Knn)</t>
+  </si>
+  <si>
+    <t>(LIGHT_PERCENT, Random Forest)</t>
+  </si>
+  <si>
+    <t>(DEEP_PERCENT, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(DEEP_PERCENT, Knn)</t>
+  </si>
+  <si>
+    <t>(DEEP_PERCENT, Random Forest)</t>
+  </si>
+  <si>
+    <t>(REM_PERCENT, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(REM_PERCENT, Knn)</t>
+  </si>
+  <si>
+    <t>(REM_PERCENT, Random Forest)</t>
+  </si>
+  <si>
+    <t>(TST, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(TST, Knn)</t>
+  </si>
+  <si>
+    <t>(TST, Random Forest)</t>
+  </si>
+  <si>
+    <t>(SOL, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(SOL, Knn)</t>
+  </si>
+  <si>
+    <t>(SOL, Random Forest)</t>
+  </si>
+  <si>
+    <t>(NAW, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(NAW, Knn)</t>
+  </si>
+  <si>
+    <t>(NAW, Random Forest)</t>
+  </si>
+  <si>
+    <t>(RESTFUL, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(RESTFUL, Knn)</t>
+  </si>
+  <si>
+    <t>(RESTFUL, Random Forest)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>\gls{pm2p5}</t>
+  </si>
+  <si>
+    <t>(SE, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>PM2P5</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>-0.047-</t>
+  </si>
+  <si>
+    <t>-0.032-</t>
+  </si>
+  <si>
+    <t>-0.008-</t>
+  </si>
+  <si>
+    <t>-0.007-</t>
+  </si>
+  <si>
+    <t>-0.044-</t>
+  </si>
+  <si>
+    <t>-0.0-</t>
+  </si>
+  <si>
+    <t>-0.048-</t>
+  </si>
+  <si>
+    <t>-0.023-</t>
+  </si>
+  <si>
+    <t>-0.049-</t>
+  </si>
+  <si>
+    <t>-0.043-</t>
+  </si>
+  <si>
+    <t>-0.036-</t>
+  </si>
+  <si>
+    <t>-0.033-</t>
+  </si>
+  <si>
+    <t>-0.004-</t>
+  </si>
+  <si>
+    <t>-0.046-</t>
+  </si>
+  <si>
+    <t>-0.041-</t>
+  </si>
+  <si>
+    <t>-0.019-</t>
+  </si>
+  <si>
+    <t>-0.026-</t>
+  </si>
+  <si>
+    <t>-0.009-</t>
+  </si>
+  <si>
+    <t>-0.075-</t>
+  </si>
+  <si>
+    <t>-0.067-</t>
+  </si>
+  <si>
+    <t>-0.058-</t>
+  </si>
+  <si>
+    <t>-0.017-</t>
+  </si>
+  <si>
+    <t>-0.011-</t>
+  </si>
+  <si>
+    <t>-0.055-</t>
+  </si>
+  <si>
+    <t>-0.045-</t>
+  </si>
+  <si>
+    <t>-0.038-</t>
+  </si>
+  <si>
+    <t>-0.035-</t>
+  </si>
+  <si>
+    <t>-0.018-</t>
+  </si>
+  <si>
+    <t>-0.014-</t>
+  </si>
+  <si>
+    <t>-0.024-</t>
+  </si>
+  <si>
+    <t>-0.01-</t>
+  </si>
+  <si>
+    <t>-0.052-</t>
+  </si>
+  <si>
+    <t>-0.06-</t>
+  </si>
+  <si>
+    <t>-0.025-</t>
+  </si>
+  <si>
+    <t>-0.079-</t>
+  </si>
+  <si>
+    <t>-0.031-</t>
+  </si>
+  <si>
+    <t>-0.013-</t>
+  </si>
+  <si>
+    <t>-0.129-</t>
+  </si>
+  <si>
+    <t>-0.047=</t>
+  </si>
+  <si>
+    <t>-0.032=</t>
+  </si>
+  <si>
+    <t>-0.008=</t>
+  </si>
+  <si>
+    <t>-0.007=</t>
+  </si>
+  <si>
+    <t>-0.044=</t>
+  </si>
+  <si>
+    <t>-0.0=</t>
+  </si>
+  <si>
+    <t>-0.048=</t>
+  </si>
+  <si>
+    <t>-0.023=</t>
+  </si>
+  <si>
+    <t>-0.049=</t>
+  </si>
+  <si>
+    <t>-0.043=</t>
+  </si>
+  <si>
+    <t>-0.036=</t>
+  </si>
+  <si>
+    <t>-0.033=</t>
+  </si>
+  <si>
+    <t>-0.004=</t>
+  </si>
+  <si>
+    <t>-0.046=</t>
+  </si>
+  <si>
+    <t>-0.041=</t>
+  </si>
+  <si>
+    <t>-0.019=</t>
+  </si>
+  <si>
+    <t>-0.026=</t>
+  </si>
+  <si>
+    <t>-0.009=</t>
+  </si>
+  <si>
+    <t>-0.075=</t>
+  </si>
+  <si>
+    <t>-0.067=</t>
+  </si>
+  <si>
+    <t>-0.058=</t>
+  </si>
+  <si>
+    <t>-0.079=</t>
+  </si>
+  <si>
+    <t>-0.031=</t>
+  </si>
+  <si>
+    <t>-0.013=</t>
+  </si>
+  <si>
+    <t>-0.129=</t>
+  </si>
+  <si>
+    <t>-0.018=</t>
+  </si>
+  <si>
+    <t>-0.014=</t>
+  </si>
+  <si>
+    <t>-0.024=</t>
+  </si>
+  <si>
+    <t>-0.017=</t>
+  </si>
+  <si>
+    <t>-0.01=</t>
+  </si>
+  <si>
+    <t>-0.052=</t>
+  </si>
+  <si>
+    <t>-0.06=</t>
+  </si>
+  <si>
+    <t>-0.025=</t>
+  </si>
+  <si>
+    <t>-0.011=</t>
+  </si>
+  <si>
+    <t>-0.055=</t>
+  </si>
+  <si>
+    <t>-0.045=</t>
+  </si>
+  <si>
+    <t>-0.038=</t>
+  </si>
+  <si>
+    <t>-0.035=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +589,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,15 +615,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,15 +939,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91B883C-5B77-F34E-9254-BFDC4A98FF9E}">
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="22" max="22" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -2737,7 +3197,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q33" s="2"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2751,7 +3211,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q34" s="2"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2765,7 +3225,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q35" s="2"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2779,7 +3239,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="W36" s="2"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2787,7 +3247,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="W37" s="2"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -2795,7 +3255,46 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>-0.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0.82</v>
+      </c>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -2803,7 +3302,40 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>-0.31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.78</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -2811,7 +3343,40 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>-0.69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
       <c r="W40" s="2"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -2819,7 +3384,46 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>-0.31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.49</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -2827,7 +3431,40 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42">
+        <v>-0.18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.47</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -2835,7 +3472,40 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <v>-0.41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -2843,7 +3513,46 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>-0.4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.53</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0.6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>8</v>
+      </c>
       <c r="W44" s="2">
         <v>1</v>
       </c>
@@ -2863,7 +3572,40 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>-0.09</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.53</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
       <c r="W45" s="2">
         <v>2</v>
       </c>
@@ -2883,7 +3625,40 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>-0.49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
       <c r="W46" s="2">
         <v>0</v>
       </c>
@@ -2903,7 +3678,46 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="47" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0.52</v>
+      </c>
+      <c r="F47">
+        <v>-0.25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0.34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0.64</v>
+      </c>
+      <c r="M47" t="s">
+        <v>8</v>
+      </c>
       <c r="W47" s="2">
         <v>1</v>
       </c>
@@ -2923,7 +3737,40 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="48" spans="17:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.53</v>
+      </c>
+      <c r="F48">
+        <v>-0.31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0.32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.59</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
       <c r="W48" s="2">
         <v>2</v>
       </c>
@@ -2943,7 +3790,40 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="49" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.52</v>
+      </c>
+      <c r="F49">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.38</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
       <c r="W49" s="2">
         <v>0</v>
       </c>
@@ -2963,7 +3843,46 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="50" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.54</v>
+      </c>
+      <c r="F50">
+        <v>-0.26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0.31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0.63</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
       <c r="W50" s="2">
         <v>1</v>
       </c>
@@ -2983,7 +3902,40 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="51" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0.52</v>
+      </c>
+      <c r="F51">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0.32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.52</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
       <c r="W51" s="2">
         <v>2</v>
       </c>
@@ -3003,7 +3955,40 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.53</v>
+      </c>
+      <c r="F52">
+        <v>-0.33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0.31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>8</v>
+      </c>
       <c r="W52" s="2">
         <v>0</v>
       </c>
@@ -3023,7 +4008,46 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>-0.35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.51</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M53" t="s">
+        <v>8</v>
+      </c>
       <c r="W53" s="2">
         <v>1</v>
       </c>
@@ -3043,7 +4067,40 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="23:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54">
+        <v>-0.23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.51</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>8</v>
+      </c>
       <c r="W54" s="2">
         <v>2</v>
       </c>
@@ -3061,6 +4118,2636 @@
       </c>
       <c r="AB54" s="1">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>-0.44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.51</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>-0.36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0.45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.44</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0.51</v>
+      </c>
+      <c r="M56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>-0.2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.47</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58">
+        <v>-0.39</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0.49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.47</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>-0.61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0.84</v>
+      </c>
+      <c r="M59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60">
+        <v>-0.46</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61">
+        <v>-0.71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <v>-0.38</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>-0.17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <v>-0.49</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67" t="s">
+        <v>8</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N68" t="s">
+        <v>8</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N69" t="s">
+        <v>8</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N71" t="s">
+        <v>8</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N72" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N74" t="s">
+        <v>8</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N75" t="s">
+        <v>8</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N76" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J77" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N77" t="s">
+        <v>8</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N78" t="s">
+        <v>8</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N79" t="s">
+        <v>8</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J80" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N80" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N82" t="s">
+        <v>8</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N83" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J84" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N84" t="s">
+        <v>8</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N85" t="s">
+        <v>8</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N86" t="s">
+        <v>8</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N87" t="s">
+        <v>8</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J88" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N88" t="s">
+        <v>8</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J89" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N89" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J90" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N90" t="s">
+        <v>8</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N92" t="s">
+        <v>8</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N93" t="s">
+        <v>8</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
